--- a/1/2/TPM y Tasas de Bonos licitados por el BCCh 1995 a 2021 - Mensual.xlsx
+++ b/1/2/TPM y Tasas de Bonos licitados por el BCCh 1995 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
   <si>
     <t>Serie</t>
   </si>
@@ -983,6 +983,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H316"/>
+  <dimension ref="A1:H317"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7807,7 +7810,7 @@
         <v>322</v>
       </c>
       <c r="B316">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="C316">
         <v>2.3</v>
@@ -7826,6 +7829,32 @@
       </c>
       <c r="H316">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" t="s">
+        <v>323</v>
+      </c>
+      <c r="B317">
+        <v>0.75</v>
+      </c>
+      <c r="C317">
+        <v>2.63</v>
+      </c>
+      <c r="D317">
+        <v>3.9</v>
+      </c>
+      <c r="E317">
+        <v>4.7</v>
+      </c>
+      <c r="F317">
+        <v>-1.2</v>
+      </c>
+      <c r="G317">
+        <v>0.64</v>
+      </c>
+      <c r="H317">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/1/2/TPM y Tasas de Bonos licitados por el BCCh 1995 a 2021 - Mensual.xlsx
+++ b/1/2/TPM y Tasas de Bonos licitados por el BCCh 1995 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
   <si>
     <t>Serie</t>
   </si>
@@ -986,6 +986,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H317"/>
+  <dimension ref="A1:H318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7857,6 +7860,14 @@
         <v>1.57</v>
       </c>
     </row>
+    <row r="318" spans="1:8">
+      <c r="A318" t="s">
+        <v>324</v>
+      </c>
+      <c r="B318">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1/2/TPM y Tasas de Bonos licitados por el BCCh 1995 a 2021 - Mensual.xlsx
+++ b/1/2/TPM y Tasas de Bonos licitados por el BCCh 1995 a 2021 - Mensual.xlsx
@@ -7867,6 +7867,24 @@
       <c r="B318">
         <v>1.5</v>
       </c>
+      <c r="C318">
+        <v>3.96</v>
+      </c>
+      <c r="D318">
+        <v>4.83</v>
+      </c>
+      <c r="E318">
+        <v>5.23</v>
+      </c>
+      <c r="F318">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="G318">
+        <v>1.32</v>
+      </c>
+      <c r="H318">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1/2/TPM y Tasas de Bonos licitados por el BCCh 1995 a 2021 - Mensual.xlsx
+++ b/1/2/TPM y Tasas de Bonos licitados por el BCCh 1995 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
   <si>
     <t>Serie</t>
   </si>
@@ -989,6 +989,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H318"/>
+  <dimension ref="A1:H319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7886,6 +7889,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="319" spans="1:8">
+      <c r="A319" t="s">
+        <v>325</v>
+      </c>
+      <c r="B319">
+        <v>1.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1/2/TPM y Tasas de Bonos licitados por el BCCh 1995 a 2021 - Mensual.xlsx
+++ b/1/2/TPM y Tasas de Bonos licitados por el BCCh 1995 a 2021 - Mensual.xlsx
@@ -7896,6 +7896,21 @@
       <c r="B319">
         <v>1.75</v>
       </c>
+      <c r="D319">
+        <v>5.97</v>
+      </c>
+      <c r="E319">
+        <v>6.34</v>
+      </c>
+      <c r="F319">
+        <v>0.32</v>
+      </c>
+      <c r="G319">
+        <v>2.42</v>
+      </c>
+      <c r="H319">
+        <v>2.95</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1/2/TPM y Tasas de Bonos licitados por el BCCh 1995 a 2021 - Mensual.xlsx
+++ b/1/2/TPM y Tasas de Bonos licitados por el BCCh 1995 a 2021 - Mensual.xlsx
@@ -7896,6 +7896,9 @@
       <c r="B319">
         <v>1.75</v>
       </c>
+      <c r="C319">
+        <v>4.83</v>
+      </c>
       <c r="D319">
         <v>5.97</v>
       </c>
